--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Bmp8a</t>
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.267818806636823</v>
+        <v>0.3786073333333334</v>
       </c>
       <c r="H2">
-        <v>0.267818806636823</v>
+        <v>1.135822</v>
       </c>
       <c r="I2">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="J2">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.88707748044849</v>
+        <v>9.918858999999999</v>
       </c>
       <c r="N2">
-        <v>7.88707748044849</v>
+        <v>29.756577</v>
       </c>
       <c r="O2">
-        <v>0.1343139536328738</v>
+        <v>0.160764128269069</v>
       </c>
       <c r="P2">
-        <v>0.1343139536328738</v>
+        <v>0.160764128269069</v>
       </c>
       <c r="Q2">
-        <v>2.112307678665875</v>
+        <v>3.755352755699333</v>
       </c>
       <c r="R2">
-        <v>2.112307678665875</v>
+        <v>33.798174801294</v>
       </c>
       <c r="S2">
-        <v>0.05893835298289528</v>
+        <v>0.05969638887997018</v>
       </c>
       <c r="T2">
-        <v>0.05893835298289528</v>
+        <v>0.05969638887997018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.267818806636823</v>
+        <v>0.3786073333333334</v>
       </c>
       <c r="H3">
-        <v>0.267818806636823</v>
+        <v>1.135822</v>
       </c>
       <c r="I3">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="J3">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.1849552455542</v>
+        <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>29.1849552455542</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.4970087761082777</v>
+        <v>0.47332838627826</v>
       </c>
       <c r="P3">
-        <v>0.4970087761082777</v>
+        <v>0.4733283862782601</v>
       </c>
       <c r="Q3">
-        <v>7.816279885613413</v>
+        <v>11.05666468570511</v>
       </c>
       <c r="R3">
-        <v>7.816279885613413</v>
+        <v>99.50998217134602</v>
       </c>
       <c r="S3">
-        <v>0.2180925949208073</v>
+        <v>0.1757605737015165</v>
       </c>
       <c r="T3">
-        <v>0.2180925949208073</v>
+        <v>0.1757605737015165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.267818806636823</v>
+        <v>0.3786073333333334</v>
       </c>
       <c r="H4">
-        <v>0.267818806636823</v>
+        <v>1.135822</v>
       </c>
       <c r="I4">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="J4">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.6491743200395</v>
+        <v>22.575837</v>
       </c>
       <c r="N4">
-        <v>21.6491743200395</v>
+        <v>67.72751099999999</v>
       </c>
       <c r="O4">
-        <v>0.3686772702588486</v>
+        <v>0.3659074854526709</v>
       </c>
       <c r="P4">
-        <v>0.3686772702588486</v>
+        <v>0.3659074854526709</v>
       </c>
       <c r="Q4">
-        <v>5.798056031065533</v>
+        <v>8.547377444337998</v>
       </c>
       <c r="R4">
-        <v>5.798056031065533</v>
+        <v>76.926396999042</v>
       </c>
       <c r="S4">
-        <v>0.1617794019427033</v>
+        <v>0.1358720740805791</v>
       </c>
       <c r="T4">
-        <v>0.1617794019427033</v>
+        <v>0.1358720740805792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.342510477370644</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H5">
-        <v>0.342510477370644</v>
+        <v>1.279705</v>
       </c>
       <c r="I5">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="J5">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.88707748044849</v>
+        <v>9.918858999999999</v>
       </c>
       <c r="N5">
-        <v>7.88707748044849</v>
+        <v>29.756577</v>
       </c>
       <c r="O5">
-        <v>0.1343139536328738</v>
+        <v>0.160764128269069</v>
       </c>
       <c r="P5">
-        <v>0.1343139536328738</v>
+        <v>0.160764128269069</v>
       </c>
       <c r="Q5">
-        <v>2.701406672887669</v>
+        <v>4.231071152198332</v>
       </c>
       <c r="R5">
-        <v>2.701406672887669</v>
+        <v>38.079640369785</v>
       </c>
       <c r="S5">
-        <v>0.07537560064997849</v>
+        <v>0.06725857337826018</v>
       </c>
       <c r="T5">
-        <v>0.07537560064997849</v>
+        <v>0.06725857337826018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.342510477370644</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H6">
-        <v>0.342510477370644</v>
+        <v>1.279705</v>
       </c>
       <c r="I6">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="J6">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.1849552455542</v>
+        <v>29.20351433333333</v>
       </c>
       <c r="N6">
-        <v>29.1849552455542</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O6">
-        <v>0.4970087761082777</v>
+        <v>0.47332838627826</v>
       </c>
       <c r="P6">
-        <v>0.4970087761082777</v>
+        <v>0.4733283862782601</v>
       </c>
       <c r="Q6">
-        <v>9.996152953195649</v>
+        <v>12.45729443664611</v>
       </c>
       <c r="R6">
-        <v>9.996152953195649</v>
+        <v>112.115649929815</v>
       </c>
       <c r="S6">
-        <v>0.2789161811874703</v>
+        <v>0.1980254696323007</v>
       </c>
       <c r="T6">
-        <v>0.2789161811874703</v>
+        <v>0.1980254696323007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4265683333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.279705</v>
+      </c>
+      <c r="I7">
+        <v>0.4183680408212104</v>
+      </c>
+      <c r="J7">
+        <v>0.4183680408212104</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.575837</v>
+      </c>
+      <c r="N7">
+        <v>67.72751099999999</v>
+      </c>
+      <c r="O7">
+        <v>0.3659074854526709</v>
+      </c>
+      <c r="P7">
+        <v>0.3659074854526709</v>
+      </c>
+      <c r="Q7">
+        <v>9.630137162694997</v>
+      </c>
+      <c r="R7">
+        <v>86.67123446425498</v>
+      </c>
+      <c r="S7">
+        <v>0.1530839978106495</v>
+      </c>
+      <c r="T7">
+        <v>0.1530839978106495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.342510477370644</v>
-      </c>
-      <c r="H7">
-        <v>0.342510477370644</v>
-      </c>
-      <c r="I7">
-        <v>0.5611896501535941</v>
-      </c>
-      <c r="J7">
-        <v>0.5611896501535941</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>21.6491743200395</v>
-      </c>
-      <c r="N7">
-        <v>21.6491743200395</v>
-      </c>
-      <c r="O7">
-        <v>0.3686772702588486</v>
-      </c>
-      <c r="P7">
-        <v>0.3686772702588486</v>
-      </c>
-      <c r="Q7">
-        <v>7.415069031037016</v>
-      </c>
-      <c r="R7">
-        <v>7.415069031037016</v>
-      </c>
-      <c r="S7">
-        <v>0.2068978683161453</v>
-      </c>
-      <c r="T7">
-        <v>0.2068978683161453</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.214425</v>
+      </c>
+      <c r="H8">
+        <v>0.6432749999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.2103029225167239</v>
+      </c>
+      <c r="J8">
+        <v>0.2103029225167238</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.918858999999999</v>
+      </c>
+      <c r="N8">
+        <v>29.756577</v>
+      </c>
+      <c r="O8">
+        <v>0.160764128269069</v>
+      </c>
+      <c r="P8">
+        <v>0.160764128269069</v>
+      </c>
+      <c r="Q8">
+        <v>2.126851341075</v>
+      </c>
+      <c r="R8">
+        <v>19.141662069675</v>
+      </c>
+      <c r="S8">
+        <v>0.03380916601083868</v>
+      </c>
+      <c r="T8">
+        <v>0.03380916601083867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.214425</v>
+      </c>
+      <c r="H9">
+        <v>0.6432749999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.2103029225167239</v>
+      </c>
+      <c r="J9">
+        <v>0.2103029225167238</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>29.20351433333333</v>
+      </c>
+      <c r="N9">
+        <v>87.61054300000001</v>
+      </c>
+      <c r="O9">
+        <v>0.47332838627826</v>
+      </c>
+      <c r="P9">
+        <v>0.4733283862782601</v>
+      </c>
+      <c r="Q9">
+        <v>6.261963560925</v>
+      </c>
+      <c r="R9">
+        <v>56.357672048325</v>
+      </c>
+      <c r="S9">
+        <v>0.09954234294444286</v>
+      </c>
+      <c r="T9">
+        <v>0.09954234294444286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.214425</v>
+      </c>
+      <c r="H10">
+        <v>0.6432749999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.2103029225167239</v>
+      </c>
+      <c r="J10">
+        <v>0.2103029225167238</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>22.575837</v>
+      </c>
+      <c r="N10">
+        <v>67.72751099999999</v>
+      </c>
+      <c r="O10">
+        <v>0.3659074854526709</v>
+      </c>
+      <c r="P10">
+        <v>0.3659074854526709</v>
+      </c>
+      <c r="Q10">
+        <v>4.840823848724999</v>
+      </c>
+      <c r="R10">
+        <v>43.56741463852499</v>
+      </c>
+      <c r="S10">
+        <v>0.07695141356144231</v>
+      </c>
+      <c r="T10">
+        <v>0.07695141356144231</v>
       </c>
     </row>
   </sheetData>
